--- a/testv2/Actor.xlsx
+++ b/testv2/Actor.xlsx
@@ -25,231 +25,243 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Fighter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Power</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格斗士</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>唯一ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4,6,7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>攻击率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>字符串结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>黑猫警长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>邋遢大王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>葫芦\n娃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>舒"克"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>贝
 塔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP: 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>自定义别名之中文字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>技能ID列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量: 3 攻击速率: 1 额外类型:超能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ActorType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int64</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RepeatCheck:true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ActorType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Fighter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Power</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Alias: "格斗士"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Alias: "超能"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>特性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>repeated Prop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NumericalRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#StrStruct</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ListSpliter: ","</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LuaIndex:true</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>repeated Prop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>repeated int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SkillID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BuffID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Prop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Default: "10" Alias:"血量"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AttackRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ExType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Alias:"额外类型"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Alias:"攻击速率"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#StrStruct</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrStruct</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量: 3  额外类型:超能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRate:3.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +279,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -353,26 +379,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -661,7 +693,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -685,69 +717,69 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -761,22 +793,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -795,6 +827,12 @@
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -832,12 +870,7 @@
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -866,7 +899,7 @@
       <c r="E10" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -874,97 +907,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>